--- a/graph_generation/results_pathCompare/gpt3.5/level_6/k_1.xlsx
+++ b/graph_generation/results_pathCompare/gpt3.5/level_6/k_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>prompt</t>
   </si>
@@ -45,23 +45,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 4 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 3 0 0 0 0 0 0 0 0
- E 3 0 0 0 0 3 0 0 5 0 0 0 0 0 0 0
- F 0 2 0 0 3 0 4 0 0 5 0 0 0 0 0 0
- G 0 0 0 0 0 4 0 0 0 0 4 0 0 0 0 0
- H 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 5 0 0 0 0 0 0 0 5 0 0 0
- J 0 0 0 0 0 5 0 0 0 0 0 0 0 4 0 0
- K 0 0 0 0 0 0 4 0 0 0 0 5 0 0 3 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 3
- M 0 0 0 0 0 0 0 0 5 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 4 0 0 1 0 2 0
- O 0 0 0 0 0 0 0 0 0 0 3 0 0 2 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 3 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 3 0 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 3 0 4 0 0 1 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 5 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ F 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 1 0 0 0 0 3 0 0 4 0 0 0 0 0
+ H 0 0 0 5 0 0 3 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 5 0 0 0 0 0 0 0 4 0 0 0
+ J 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 4 0 0 0 0 1 0 0 3 0
+ L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0
+ O 0 0 0 0 0 0 0 0 0 0 3 0 0 3 0 5
+ P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 5 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -82,23 +82,171 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 2 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 3 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 3 0 5 0 0 5 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 4 0 0 0 0 0 0 0 0
- E 4 0 0 0 0 5 0 0 5 0 0 0 0 0 0 0
- F 0 1 0 0 5 0 0 0 0 3 0 0 0 0 0 0
- G 0 0 5 0 0 0 0 4 0 0 5 0 0 0 0 0
- H 0 0 0 4 0 0 4 0 0 0 0 4 0 0 0 0
- I 0 0 0 0 5 0 0 0 0 5 0 0 1 0 0 0
- J 0 0 0 0 0 3 0 0 5 0 4 0 0 1 0 0
- K 0 0 0 0 0 0 5 0 0 4 0 1 0 0 0 0
- L 0 0 0 0 0 0 0 4 0 0 1 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 5 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 5 0 2 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 3 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 4 0 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 4 0 0 2 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 4 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ F 0 3 0 0 5 0 0 0 0 2 0 0 0 0 0 0
+ G 0 0 2 0 0 0 0 5 0 0 1 0 0 0 0 0
+ H 0 0 0 1 0 0 5 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ J 0 0 0 0 0 2 0 0 0 0 1 0 0 1 0 0
+ K 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2 0
+ L 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 2 0 0 0 0 2 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 2 0 4 0
+ O 0 0 0 0 0 0 0 0 0 0 2 0 0 4 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 1 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the least cost path from node A to node I? Return the sequence of nodes in response.
+   A B C D E F G H I
+ A 0 1 0 3 0 0 0 0 0
+ B 1 0 2 0 2 0 0 0 0
+ C 0 2 0 0 0 2 0 0 0
+ D 3 0 0 0 1 0 2 0 0
+ E 0 2 0 1 0 3 0 1 0
+ F 0 0 2 0 3 0 0 0 1
+ G 0 0 0 2 0 0 0 2 0
+ H 0 0 0 0 1 0 2 0 1
+ I 0 0 0 0 0 1 0 1 0
+Solution: A -&gt; B -&gt; E -&gt; H -&gt; I
+ Given these examples, answer the following quesiton.
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 3 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ F 0 2 0 0 0 0 4 0 0 5 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 3 0 0 5 0 0 0 0 0
+ H 0 0 0 3 0 0 3 0 0 0 0 5 0 0 0 0
+ I 0 0 0 0 4 0 0 0 0 3 0 0 3 0 0 0
+ J 0 0 0 0 0 5 0 0 3 0 3 0 0 2 0 0
+ K 0 0 0 0 0 0 5 0 0 3 0 0 0 0 4 0
+ L 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 4
+ M 0 0 0 0 0 0 0 0 3 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 2 0 0 5 0 5 0
+ O 0 0 0 0 0 0 0 0 0 0 4 0 0 5 0 2
+ P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 2 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the least cost path from node A to node I? Return the sequence of nodes in response.
+   A B C D E F G H I
+ A 0 1 0 3 0 0 0 0 0
+ B 1 0 2 0 2 0 0 0 0
+ C 0 2 0 0 0 2 0 0 0
+ D 3 0 0 0 1 0 2 0 0
+ E 0 2 0 1 0 3 0 1 0
+ F 0 0 2 0 3 0 0 0 1
+ G 0 0 0 2 0 0 0 2 0
+ H 0 0 0 0 1 0 2 0 1
+ I 0 0 0 0 0 1 0 1 0
+Solution: A -&gt; B -&gt; E -&gt; H -&gt; I
+ Given these examples, answer the following quesiton.
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 5 0 0 5 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 3 0 0 1 0 0 0 0 0 0 0
+ F 0 0 0 0 3 0 0 0 0 4 0 0 0 0 0 0
+ G 0 0 5 0 0 0 0 0 0 0 5 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0
+ J 0 0 0 0 0 4 0 0 0 0 0 0 0 1 0 0
+ K 0 0 0 0 0 0 5 0 0 0 0 5 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 4
+ M 0 0 0 0 0 0 0 0 2 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 3 0 4 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4
+ P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 4 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the least cost path from node A to node I? Return the sequence of nodes in response.
+   A B C D E F G H I
+ A 0 1 0 3 0 0 0 0 0
+ B 1 0 2 0 2 0 0 0 0
+ C 0 2 0 0 0 2 0 0 0
+ D 3 0 0 0 1 0 2 0 0
+ E 0 2 0 1 0 3 0 1 0
+ F 0 0 2 0 3 0 0 0 1
+ G 0 0 0 2 0 0 0 2 0
+ H 0 0 0 0 1 0 2 0 1
+ I 0 0 0 0 0 1 0 1 0
+Solution: A -&gt; B -&gt; E -&gt; H -&gt; I
+ Given these examples, answer the following quesiton.
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 5 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 1 0 0 4 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 5 0 0 0 0 0 0 0 0
+ E 3 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ F 0 1 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ G 0 0 4 0 0 0 0 3 0 0 3 0 0 0 0 0
+ H 0 0 0 5 0 0 3 0 0 0 0 5 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 4 0 0 1 0 0 0
+ J 0 0 0 0 0 3 0 0 4 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 3 0 0 0 0 1 0 0 0 0
+ L 0 0 0 0 0 0 0 5 0 0 1 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the least cost path from node A to node I? Return the sequence of nodes in response.
+   A B C D E F G H I
+ A 0 1 0 3 0 0 0 0 0
+ B 1 0 2 0 2 0 0 0 0
+ C 0 2 0 0 0 2 0 0 0
+ D 3 0 0 0 1 0 2 0 0
+ E 0 2 0 1 0 3 0 1 0
+ F 0 0 2 0 3 0 0 0 1
+ G 0 0 0 2 0 0 0 2 0
+ H 0 0 0 0 1 0 2 0 1
+ I 0 0 0 0 0 1 0 1 0
+Solution: A -&gt; B -&gt; E -&gt; H -&gt; I
+ Given these examples, answer the following quesiton.
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 3 0 0 1 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 2 0 0 0 0 5 0 0 1 0 0 0 0 0 0 0
+ F 0 0 0 0 5 0 0 0 0 2 0 0 0 0 0 0
+ G 0 0 1 0 0 0 0 0 0 0 3 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 0 0 0 4 0 0 0
+ J 0 0 0 0 0 2 0 0 0 0 1 0 0 3 0 0
+ K 0 0 0 0 0 0 3 0 0 1 0 3 0 0 0 0
+ L 0 0 0 0 0 0 0 1 0 0 3 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 4 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 3 0 0 5 0 4 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2
+ P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 2 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -119,22 +267,22 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node O? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O
- A 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0
- B 2 0 5 0 0 4 0 0 0 0 0 0 0 0 0
- C 0 5 0 4 0 0 4 0 0 0 0 0 0 0 0
- D 0 0 4 0 0 0 0 1 0 0 0 0 0 0 0
- E 1 0 0 0 0 4 0 0 4 0 0 0 0 0 0
- F 0 4 0 0 4 0 1 0 0 0 0 0 0 0 0
- G 0 0 4 0 0 1 0 4 0 5 0 0 0 0 0
- H 0 0 0 1 0 0 4 0 0 0 1 0 0 0 0
- I 0 0 0 0 4 0 0 0 0 0 0 5 0 0 0
- J 0 0 0 0 0 0 5 0 0 0 0 0 0 5 0
- K 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1
- L 0 0 0 0 0 0 0 0 5 0 0 0 5 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0
- N 0 0 0 0 0 0 0 0 0 5 0 0 2 0 4
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 4 0
-Let's list down all the possible paths from node A to node O, and compare to get the answer.
+ A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 4 0 0 5 0 0 0 0 0 0 0 0 0
+ C 0 4 0 5 0 0 2 0 0 0 0 0 0 0 0
+ D 0 0 5 0 0 0 0 5 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ F 0 5 0 0 0 0 0 0 0 5 0 0 0 0 0
+ G 0 0 2 0 0 0 0 0 0 0 3 0 0 0 0
+ H 0 0 0 5 0 0 0 0 0 0 0 4 0 0 0
+ I 0 0 0 0 3 0 0 0 0 2 0 0 0 0 0
+ J 0 0 0 0 0 5 0 0 2 0 0 0 3 0 0
+ K 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 4 0 0 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4
+ O 0 0 0 0 0 0 0 0 0 0 0 3 0 4 0
+Let's list down all the possible paths from node A to node O, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -155,23 +303,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 3 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 5 0 0 5 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 5 0 0 0 0 0 0 0 0
- E 5 0 0 0 0 1 0 0 4 0 0 0 0 0 0 0
- F 0 1 0 0 1 0 2 0 0 4 0 0 0 0 0 0
- G 0 0 5 0 0 2 0 0 0 0 5 0 0 0 0 0
- H 0 0 0 5 0 0 0 0 0 0 0 5 0 0 0 0
- I 0 0 0 0 4 0 0 0 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 4 0 0 0 0 0 0 0 5 0 0
- K 0 0 0 0 0 0 5 0 0 0 0 0 0 0 5 0
- L 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 5 0 0
- N 0 0 0 0 0 0 0 0 0 5 0 0 5 0 2 0
- O 0 0 0 0 0 0 0 0 0 0 5 0 0 2 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 3 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 1 0 0 4 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 4 0 0 3 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 4 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 4 0 0 2 0 0 0 0 0 0 0
+ F 0 4 0 0 4 0 2 0 0 4 0 0 0 0 0 0
+ G 0 0 3 0 0 2 0 5 0 0 0 0 0 0 0 0
+ H 0 0 0 4 0 0 5 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 2 0 0 0 0 1 0 0 5 0 0 0
+ J 0 0 0 0 0 4 0 0 1 0 1 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 4 0 0 0 0
+ L 0 0 0 0 0 0 0 1 0 0 4 0 0 0 0 4
+ M 0 0 0 0 0 0 0 0 5 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5
+ P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 5 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -192,134 +340,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 3 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- F 0 3 0 0 0 0 1 0 0 3 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 3 0 0 0 0 0
- H 0 0 0 2 0 0 0 0 0 0 0 5 0 0 0 0
- I 0 0 0 0 2 0 0 0 0 4 0 0 2 0 0 0
- J 0 0 0 0 0 3 0 0 4 0 2 0 0 1 0 0
- K 0 0 0 0 0 0 3 0 0 2 0 0 0 0 5 0
- L 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 2 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 3 0 3 0
- O 0 0 0 0 0 0 0 0 0 0 5 0 0 3 0 4
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the least cost path from node A to node I? Return the sequence of nodes in response.
-   A B C D E F G H I
- A 0 1 0 3 0 0 0 0 0
- B 1 0 2 0 2 0 0 0 0
- C 0 2 0 0 0 2 0 0 0
- D 3 0 0 0 1 0 2 0 0
- E 0 2 0 1 0 3 0 1 0
- F 0 0 2 0 3 0 0 0 1
- G 0 0 0 2 0 0 0 2 0
- H 0 0 0 0 1 0 2 0 1
- I 0 0 0 0 0 1 0 1 0
-Solution: A -&gt; B -&gt; E -&gt; H -&gt; I
- Given these examples, answer the following quesiton.
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 2 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 5 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 5 0 0 0 0 5 0 0 5 0 0 0 0 0 0 0
- F 0 0 0 0 5 0 2 0 0 1 0 0 0 0 0 0
- G 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 0
- H 0 0 0 1 0 0 1 0 0 0 0 5 0 0 0 0
- I 0 0 0 0 5 0 0 0 0 1 0 0 1 0 0 0
- J 0 0 0 0 0 1 0 0 1 0 5 0 0 2 0 0
- K 0 0 0 0 0 0 0 0 0 5 0 2 0 0 2 0
- L 0 0 0 0 0 0 0 5 0 0 2 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 2 0 0 1 0 2 0
- O 0 0 0 0 0 0 0 0 0 0 2 0 0 2 0 5
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 5 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the least cost path from node A to node I? Return the sequence of nodes in response.
-   A B C D E F G H I
- A 0 1 0 3 0 0 0 0 0
- B 1 0 2 0 2 0 0 0 0
- C 0 2 0 0 0 2 0 0 0
- D 3 0 0 0 1 0 2 0 0
- E 0 2 0 1 0 3 0 1 0
- F 0 0 2 0 3 0 0 0 1
- G 0 0 0 2 0 0 0 2 0
- H 0 0 0 0 1 0 2 0 1
- I 0 0 0 0 0 1 0 1 0
-Solution: A -&gt; B -&gt; E -&gt; H -&gt; I
- Given these examples, answer the following quesiton.
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 4 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 3 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0
- F 0 3 0 0 1 0 2 0 0 4 0 0 0 0 0 0
- G 0 0 1 0 0 2 0 3 0 0 4 0 0 0 0 0
- H 0 0 0 1 0 0 3 0 0 0 0 4 0 0 0 0
- I 0 0 0 0 2 0 0 0 0 1 0 0 5 0 0 0
- J 0 0 0 0 0 4 0 0 1 0 3 0 0 0 0 0
- K 0 0 0 0 0 0 4 0 0 3 0 3 0 0 3 0
- L 0 0 0 0 0 0 0 4 0 0 3 0 0 0 0 3
- M 0 0 0 0 0 0 0 0 5 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 5 0
- O 0 0 0 0 0 0 0 0 0 0 3 0 0 5 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 3 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the least cost path from node A to node I? Return the sequence of nodes in response.
-   A B C D E F G H I
- A 0 1 0 3 0 0 0 0 0
- B 1 0 2 0 2 0 0 0 0
- C 0 2 0 0 0 2 0 0 0
- D 3 0 0 0 1 0 2 0 0
- E 0 2 0 1 0 3 0 1 0
- F 0 0 2 0 3 0 0 0 1
- G 0 0 0 2 0 0 0 2 0
- H 0 0 0 0 1 0 2 0 1
- I 0 0 0 0 0 1 0 1 0
-Solution: A -&gt; B -&gt; E -&gt; H -&gt; I
- Given these examples, answer the following quesiton.
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 2 0 0 5 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 1 0 0 5 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 2 0 0 0 0 5 0 0 3 0 0 0 0 0 0 0
- F 0 5 0 0 5 0 0 0 0 2 0 0 0 0 0 0
- G 0 0 5 0 0 0 0 0 0 0 4 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 0 0 0 3 0 0 0 0
- I 0 0 0 0 3 0 0 0 0 2 0 0 3 0 0 0
- J 0 0 0 0 0 2 0 0 2 0 3 0 0 5 0 0
- K 0 0 0 0 0 0 4 0 0 3 0 1 0 0 4 0
- L 0 0 0 0 0 0 0 3 0 0 1 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 3 0 0 0 0 2 0 0
- N 0 0 0 0 0 0 0 0 0 5 0 0 2 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 4 0 0 1 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 3 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 2 0 0 2 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 3 0 0 0 0 0 0 0 0
+ E 3 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ F 0 5 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ G 0 0 2 0 0 3 0 1 0 0 0 0 0 0 0 0
+ H 0 0 0 3 0 0 1 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 4 0 0 0 0 2 0 0 1 0 0 0
+ J 0 0 0 0 0 0 0 0 2 0 2 0 0 4 0 0
+ K 0 0 0 0 0 0 0 0 0 2 0 3 0 0 2 0
+ L 0 0 0 0 0 0 0 3 0 0 3 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 1 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 4 0 0 5 0 5 0
+ O 0 0 0 0 0 0 0 0 0 0 2 0 0 5 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 1 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -341,242 +378,224 @@
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
  A 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 3 0 0 2 0 0 0 0 0 0 0 0 0
- D 0 0 3 0 0 0 0 3 0 0 0 0 0 0 0 0
- E 2 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0
- H 0 0 0 3 0 0 0 0 0 0 0 2 0 0 0 0
- I 0 0 0 0 5 0 0 0 0 1 0 0 2 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 3 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 2 0 0 2 0
- L 0 0 0 0 0 0 0 2 0 0 2 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 2 0 0 0 0 5 0 0
- N 0 0 0 0 0 0 0 0 0 3 0 0 5 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 4
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 4 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ B 1 0 3 0 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 5 0 0 0 0 0 0 0 0
+ E 2 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0
+ F 0 3 0 0 1 0 4 0 0 3 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 4 0 0 3 0 0 0 0 0
+ H 0 0 0 5 0 0 4 0 0 0 0 4 0 0 0 0
+ I 0 0 0 0 2 0 0 0 0 1 0 0 1 0 0 0
+ J 0 0 0 0 0 3 0 0 1 0 0 0 0 3 0 0
+ K 0 0 0 0 0 0 3 0 0 0 0 4 0 0 0 0
+ L 0 0 0 0 0 0 0 4 0 0 4 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 3 0 0 1 0 2 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4
+ P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 4 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the least cost path from node A to node I? Return the sequence of nodes in response.
-   A B C D E F G H I
- A 0 1 0 3 0 0 0 0 0
- B 1 0 2 0 2 0 0 0 0
- C 0 2 0 0 0 2 0 0 0
- D 3 0 0 0 1 0 2 0 0
- E 0 2 0 1 0 3 0 1 0
- F 0 0 2 0 3 0 0 0 1
- G 0 0 0 2 0 0 0 2 0
- H 0 0 0 0 1 0 2 0 1
- I 0 0 0 0 0 1 0 1 0
-Solution: A -&gt; B -&gt; E -&gt; H -&gt; I
- Given these examples, answer the following quesiton.
-What is the least cost path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 4 0 0 3 0 0 0 0 0 0 0 0 0 0
- B 4 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 3 0 1 0 0 5 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
- E 3 0 0 0 0 2 0 0 5 0 0 0 0 0 0
- F 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- G 0 0 5 0 0 0 0 1 0 0 0 0 0 0 0
- H 0 0 0 1 0 0 1 0 0 0 0 2 0 0 0
- I 0 0 0 0 5 0 0 0 0 4 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 4 0 3 0 3 0 0
- K 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0
- L 0 0 0 0 0 0 0 2 0 0 5 0 0 0 4
- M 0 0 0 0 0 0 0 0 0 3 0 0 0 3 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
-Let's list down all the possible paths from node A to node O, and compare to get the answer.
-    </t>
+    <t>A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; L -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; O -&gt; P</t>
   </si>
   <si>
     <t>A -&gt; E -&gt; I -&gt; M -&gt; N -&gt; O -&gt; P</t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; K -&gt; O</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; L -&gt; P</t>
-  </si>
-  <si>
     <t>A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; L -&gt; P</t>
   </si>
   <si>
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P</t>
+  </si>
+  <si>
     <t>A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; O</t>
   </si>
   <si>
+    <t>A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>Possible paths from A to P and their costs:
+1. A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; L -&gt; O -&gt; P (cost = 14)
+2. A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; O -&gt; P (cost = 12)
+3. A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; O -&gt; P (cost = 13)
+4. A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P (cost = 11)
+5. A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; M -&gt; P (cost = 10)
+6. A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; O -&gt; N -&gt; M -&gt; P (cost = 14)
+7. A -&gt; B -&gt; F -&gt; L -&gt; O -&gt; P (cost = 9)
+8. A -&gt; B -&gt; F -&gt; L -&gt; M -&gt; N -&gt; P (cost = 10)
+9. A -&gt; B -&gt; F -&gt; L -&gt; M -&gt; P (cost = 8)
+The least cost path from node A to node P is:
+A -&gt; B -&gt; F -&gt; L -&gt; M -&gt; P, with a cost of 8.</t>
+  </si>
+  <si>
+    <t>There are multiple paths from node A to node P:
+1. A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; O -&gt; P (cost = 14)
+2. A -&gt; E -&gt; F -&gt; J -&gt; O -&gt; P (cost = 15)
+3. A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P (cost = 19)
+4. A -&gt; E -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P (cost = 20)
+5. A -&gt; B -&gt; C -&gt; F -&gt; K -&gt; O -&gt; P (cost = 16)
+6. A -&gt; E -&gt; F -&gt; K -&gt; O -&gt; P (cost = 17)
+The least cost path from node A to node P is path 1: A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; O -&gt; P.</t>
+  </si>
+  <si>
     <t>The possible paths from node A to node P are:
-1. A -&gt; B -&gt; F -&gt; K -&gt; O -&gt; P (with a cost of 19)
-2. A -&gt; B -&gt; F -&gt; L -&gt; P (with a cost of 18)
-3. A -&gt; E -&gt; J -&gt; N -&gt; P (with a cost of 16)
-4. A -&gt; E -&gt; K -&gt; O -&gt; P (with a cost of 14)
-5. A -&gt; E -&gt; K -&gt; L -&gt; P (with a cost of 13)
-6. A -&gt; E -&gt; K -&gt; M -&gt; N -&gt; P (with a cost of 12)
-The least cost path from node A to node P is:
-A -&gt; E -&gt; K -&gt; M -&gt; N -&gt; P (with a cost of 12)</t>
+1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P
+2. A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P
+3. A -&gt; B -&gt; F -&gt; M -&gt; N -&gt; P
+4. A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; L -&gt; P
+5. A -&gt; B -&gt; F -&gt; M -&gt; O -&gt; P
+Now, let's compare the costs of each path:
+1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P: Cost = 4 + 1 + 4 + 3 + 5 = 17
+2. A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P: Cost = 4 + 2 + 4 + 5 + 4 + 2 = 21
+3. A -&gt; B -&gt; F -&gt; M -&gt; N -&gt; P: Cost = 4 + 2 + 5 + 2 + 5 = 18
+4. A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; L -&gt; P: Cost = 4 + 2 + 4 + 5 + 4 + 4 = 23
+5. A -&gt; B -&gt; F -&gt; M -&gt; O -&gt; P: Cost = 4 + 2 + 5 + 5 + 2 = 18
+The least cost path from node A to node P is A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P with a cost of 17.</t>
+  </si>
+  <si>
+    <t>Possible paths from node A to node P:
+1. A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; L -&gt; P (cost = 17)
+2. A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; O -&gt; P (cost = 19)
+3. A -&gt; B -&gt; C -&gt; G -&gt; L -&gt; K -&gt; O -&gt; P (cost = 18)
+4. A -&gt; B -&gt; C -&gt; G -&gt; L -&gt; P (cost = 16)
+5. A -&gt; B -&gt; C -&gt; G -&gt; O -&gt; P (cost = 18)
+6. A -&gt; B -&gt; C -&gt; G -&gt; P (cost = 16)
+7. A -&gt; B -&gt; C -&gt; G -&gt; L -&gt; K -&gt; O -&gt; N -&gt; P (cost = 22)
+8. A -&gt; B -&gt; C -&gt; G -&gt; L -&gt; N -&gt; P (cost = 20)
+9. A -&gt; B -&gt; C -&gt; G -&gt; O -&gt; N -&gt; P (cost = 20)
+10. A -&gt; B -&gt; C -&gt; G -&gt; P -&gt; O -&gt; N -&gt; L -&gt; K -&gt; O -&gt; N -&gt; P (cost = 26)
+11. A -&gt; B -&gt; C -&gt; G -&gt; P -&gt; O -&gt; N -&gt; L -&gt; P (cost = 24)
+12. A -&gt; B -&gt; C -&gt; G -&gt; P -&gt; O -&gt; N -&gt; L -&gt; K -&gt; O -&gt; P (cost = 28)
+13. A -&gt; B -&gt; C -&gt; G -&gt; P -&gt; O -&gt; N -&gt; P (cost = 26)
+14. A -&gt; B -&gt; C -&gt; G -&gt; P -&gt; O -&gt; P (cost = 24)
+15. A -&gt; B -&gt; C -&gt; G -&gt; P -&gt; L -&gt; K -&gt; O -&gt; N -&gt; P (cost = 25)
+16. A -&gt; B -&gt; C -&gt; G -&gt; P -&gt; L -&gt; N -&gt; P (cost = 23)
+The least cost path from node A to node P is A -&gt; B -&gt; C -&gt; G -&gt; P, with a cost of 16.</t>
+  </si>
+  <si>
+    <t>Possible paths from node A to node P:
+1. A -&gt; B -&gt; F -&gt; J -&gt; M -&gt; O -&gt; P (cost: 9)
+2. A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; P (cost: 8)
+3. A -&gt; B -&gt; F -&gt; K -&gt; L -&gt; P (cost: 9)
+4. A -&gt; E -&gt; H -&gt; P (cost: 6)
+5. A -&gt; D -&gt; H -&gt; P (cost: 8)
+6. A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; P (cost: 11)
+7. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P (cost: 8)
+8. A -&gt; D -&gt; H -&gt; G -&gt; C -&gt; B -&gt; F -&gt; K -&gt; L -&gt; P (cost: 17)
+The least cost path from node A to node P is: A -&gt; E -&gt; H -&gt; P with a cost of 6.</t>
+  </si>
+  <si>
+    <t>Possible paths from node A to node P:
+1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; M -&gt; N -&gt; O -&gt; P (cost = 17)
+2. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; M -&gt; P (cost = 16)
+3. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P (cost = 16)
+4. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; O -&gt; P (cost = 14)
+5. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; N -&gt; P (cost = 13)
+6. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P (cost = 11)
+7. A -&gt; B -&gt; C -&gt; G -&gt; L -&gt; P (cost = 15)
+8. A -&gt; B -&gt; C -&gt; G -&gt; M -&gt; N -&gt; O -&gt; P (cost = 16)
+9. A -&gt; B -&gt; C -&gt; G -&gt; M -&gt; P (cost = 15)
+10. A -&gt; B -&gt; C -&gt; G -&gt; M -&gt; N -&gt; P (cost = 14)
+11. A -&gt; B -&gt; C -&gt; G -&gt; M -&gt; O -&gt; P (cost = 12)
+12. A -&gt; B -&gt; C -&gt; G -&gt; M -&gt; N -&gt; O -&gt; P (cost = 13)
+13. A -&gt; B -&gt; C -&gt; G -&gt; M -&gt; N -&gt; P (cost = 12)
+14. A -&gt; B -&gt; C -&gt; G -&gt; M -&gt; P (cost = 11)
+15. A -&gt; B -&gt; C -&gt; G -&gt; L -&gt; O -&gt; P (cost = 12)
+16. A -&gt; B -&gt; C -&gt; G -&gt; L -&gt; N -&gt; P (cost = 11)
+17. A -&gt; B -&gt; C -&gt; G -&gt; L -&gt; P (cost = 9)
+18. A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; K -&gt; P (cost = 13)
+19. A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; O -&gt; P (cost = 11)
+20. A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P (cost = 14)
+21. A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; O -&gt; L -&gt; P (cost = 12)
+22. A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; O -&gt; N -&gt; P (cost = 11)
+23. A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; O -&gt; M -&gt; P (cost = 10)
+24. A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; N -&gt; P (cost = 10)
+25. A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; O -&gt; P (cost = 8)
+26. A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; P (cost = 6)
+The least cost path from node A to node P is A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; P, with a cost of 6.</t>
+  </si>
+  <si>
+    <t>Possible paths from node A to node O:
+1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; M -&gt; N -&gt; O (with a cost of 26)
+2. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; M -&gt; L -&gt; O (with a cost of 24)
+3. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; O (with a cost of 17)
+4. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; N -&gt; O (with a cost of 20)
+5. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; N -&gt; M -&gt; O (with a cost of 25)
+6. A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; L -&gt; O (with a cost of 15)
+7. A -&gt; B -&gt; C -&gt; G -&gt; N -&gt; M -&gt; O (with a cost of 16)
+8. A -&gt; B -&gt; C -&gt; G -&gt; N -&gt; O (with a cost of 13)
+9. A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; N -&gt; O (with a cost of 15)
+10. A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; N -&gt; M -&gt; O (with a cost of 20)
+11. A -&gt; B -&gt; E -&gt; I -&gt; N -&gt; O (with a cost of 9)
+12. A -&gt; B -&gt; E -&gt; I -&gt; H -&gt; L -&gt; O (with a cost of 14)
+13. A -&gt; B -&gt; E -&gt; I -&gt; H -&gt; M -&gt; N -&gt; O (with a cost of 23)
+14. A -&gt; B -&gt; E -&gt; I -&gt; H -&gt; M -&gt; L -&gt; O (with a cost of 25)
+The least cost path from node A to node O is path number 11:
+A -&gt; B -&gt; E -&gt; I -&gt; N -&gt; O. It has a cost of 9.</t>
   </si>
   <si>
     <t>Possible paths from A to P:
-1. A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P (cost = 1 + 1 + 3 + 4 + 1 + 1 = 11)
-2. A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; O -&gt; P (cost = 1 + 1 + 3 + 4 + 2 + 1 = 12)
-3. A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P (cost = 1 + 1 + 3 + 5 + 5 + 2 + 1 = 18)
-4. A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; M -&gt; P (cost = 1 + 1 + 3 + 5 + 5 + 5 + 5 = 25)
-5. A -&gt; B -&gt; C -&gt; G -&gt; J -&gt; K -&gt; L -&gt; P (cost = 2 + 3 + 5 + 4 + 1 + 1 = 16)
-6. A -&gt; B -&gt; C -&gt; G -&gt; J -&gt; K -&gt; O -&gt; P (cost = 2 + 3 + 5 + 4 + 2 + 1 = 17)
-7. A -&gt; B -&gt; C -&gt; G -&gt; J -&gt; N -&gt; O -&gt; P (cost = 2 + 3 + 5 + 5 + 5 + 2 + 1 = 23)
-8. A -&gt; B -&gt; C -&gt; G -&gt; J -&gt; N -&gt; M -&gt; P (cost = 2 + 3 + 5 + 5 + 5 + 5 + 5 = 30)
-9. A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P (cost = 4 + 5 + 1 + 3 + 1 + 1 = 15)
-10. A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; K -&gt; O -&gt; P (cost = 4 + 5 + 1 + 3 + 2 + 1 = 16)
-11. A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P (cost = 4 + 5 + 1 + 3 + 5 + 2 + 1 = 21)
-12. A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; N -&gt; M -&gt; P (cost = 4 + 5 + 1 + 3 + 5 + 5 + 5 = 28)
-The least cost path from node A to node P is A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P.</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node O:
-1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; K -&gt; O (cost = 2 + 5 + 4 + 1 + 1 + 1 = 14)
-2. A -&gt; B -&gt; F -&gt; G -&gt; J -&gt; N -&gt; O (cost = 2 + 4 + 1 + 5 + 4 + 4 = 20)
-3. A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; O (cost = 2 + 4 + 1 + 5 + 1 = 13)
-4. A -&gt; B -&gt; F -&gt; G -&gt; L -&gt; M -&gt; O (cost = 2 + 4 + 1 + 5 + 5 + 2 = 19)
-5. A -&gt; B -&gt; F -&gt; G -&gt; M -&gt; O (cost = 2 + 4 + 1 + 5 + 2 = 14)
-6. A -&gt; E -&gt; F -&gt; G -&gt; J -&gt; N -&gt; O (cost = 1 + 4 + 1 + 5 + 4 + 4 = 19)
-7. A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O (cost = 1 + 4 + 1 + 5 + 1 = 12)
-8. A -&gt; E -&gt; F -&gt; G -&gt; L -&gt; M -&gt; O (cost = 1 + 4 + 1 + 5 + 5 + 2 = 18)
-9. A -&gt; E -&gt; F -&gt; G -&gt; M -&gt; O (cost = 1 + 4 + 1 + 5 + 2 = 13)
-The least cost path from node A to node O is A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O with a cost of 12.</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node P:
-1. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; J -&gt; L -&gt; P (total cost: 26)
-2. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; J -&gt; N -&gt; O -&gt; P (total cost: 26)
-3. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; K -&gt; N -&gt; O -&gt; P (total cost: 26)
-4. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; K -&gt; L -&gt; P (total cost: 26)
-5. A -&gt; B -&gt; C -&gt; G -&gt; L -&gt; P (total cost: 27)
-6. A -&gt; B -&gt; F -&gt; G -&gt; L -&gt; P (total cost: 28)
-7. A -&gt; E -&gt; J -&gt; L -&gt; P (total cost: 23)
-8. A -&gt; E -&gt; K -&gt; L -&gt; P (total cost: 23)
-9. A -&gt; E -&gt; F -&gt; G -&gt; L -&gt; P (total cost: 24)
-10. A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; L -&gt; P (total cost: 24)
-The least cost path from node A to node P is A -&gt; E -&gt; J -&gt; L -&gt; P, with a total cost of 23.</t>
-  </si>
-  <si>
-    <t>Possible paths from A to P:
-1) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
-2) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
-3) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
-.
-.
-.
-and so on.
-We can see that there are many possible paths from A to P, and listing down all of them would be extensive and time-consuming. To find the least cost path, we can use algorithms such as Dijkstra's algorithm or Floyd-Warshall algorithm. These algorithms efficiently find the shortest path between two nodes in a weighted graph.
-Using Dijkstra's algorithm, the least cost path from A to P is:
-A -&gt; B -&gt; C -&gt; F -&gt; O -&gt; P
-Therefore, the sequence of nodes in the least cost path from A to P is: A -&gt; B -&gt; C -&gt; F -&gt; O -&gt; P.</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node P:
-1. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (cost: 26)
-2. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; P (cost: 24)
-3. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; N -&gt; O -&gt; P (cost: 24)
-4. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; N -&gt; P (cost: 23)
-5. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; N -&gt; O -&gt; P (cost: 23)
-6. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; N -&gt; P (cost: 22)
-7. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P (cost: 22)
-8. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; P (cost: 21)
-9. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; N -&gt; O -&gt; P (cost: 21)
-10. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; N -&gt; P (cost: 20)
-11. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; N -&gt; O -&gt; P (cost: 20)
-12. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; N -&gt; P (cost: 19)
-13. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; N -&gt; O -&gt; P (cost: 19)
-14. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; N -&gt; P (cost: 18)
-15. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; N -&gt; O -&gt; P (cost: 18)
-16. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; N -&gt; P (cost: 17)
-17. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; N -&gt; O -&gt; P (cost: 17)
-18. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; N -&gt; P (cost: 16)
-19. A -&gt; B -&gt; C -&gt; D -&gt; N -&gt; O -&gt; P (cost: 16)
-20. A -&gt; B -&gt; C -&gt; D -&gt; N -&gt; P (cost: 15)
-21. A -&gt; B -&gt; C -&gt; N -&gt; O -&gt; P (cost: 15)
-22. A -&gt; B -&gt; C -&gt; N -&gt; P (cost: 14)
-23. A -&gt; B -&gt; N -&gt; O -&gt; P (cost: 14)
-24. A -&gt; B -&gt; N -&gt; P (cost: 13)
-Therefore, the least cost path from node A to node P is A -&gt; B -&gt; N -&gt; P with a cost of 13.</t>
-  </si>
-  <si>
-    <t>Possible Paths from A to P:
-1. A -&gt; B -&gt; F -&gt; M -&gt; O -&gt; P (Cost: 10)
-2. A -&gt; B -&gt; F -&gt; M -&gt; N -&gt; O -&gt; P (Cost: 13)
-3. A -&gt; B -&gt; F -&gt; M -&gt; N -&gt; P (Cost: 9)
-4. A -&gt; B -&gt; F -&gt; O -&gt; P (Cost: 8)
-5. A -&gt; B -&gt; F -&gt; O -&gt; N -&gt; P (Cost: 11)
-6. A -&gt; B -&gt; F -&gt; O -&gt; N -&gt; M -&gt; P (Cost: 14)
-7. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; O -&gt; P (Cost: 8)
-8. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; O -&gt; N -&gt; P (Cost: 11)
-9. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; G -&gt; P (Cost: 8)
-10. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; G -&gt; O -&gt; P (Cost: 9)
-11. A -&gt; B -&gt; E -&gt; I -&gt; P (Cost: 5)
-From the above list, the least cost path from node A to node P is A -&gt; B -&gt; E -&gt; I -&gt; P with a cost of 5.</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node P:
-1. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (cost: 39)
-2. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; P (cost: 40)
-3. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; P (cost: 42)
-4. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; P (cost: 38)
-5. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P (cost: 38)
-6. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P (cost: 38)
-7. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; K -&gt; L -&gt; M -&gt; N -&gt; P (cost: 36)
-8. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; K -&gt; L -&gt; M -&gt; P (cost: 38)
-9. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; N -&gt; O -&gt; P (cost: 40)
-10. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P (cost: 38)
-11. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; P (cost: 38)
-12. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; K -&gt; P (cost: 40)
-13. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; N -&gt; O -&gt; P (cost: 40)
-14. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; P (cost: 38)
-15. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; O -&gt; P (cost: 42)
-16. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; N -&gt; O -&gt; P (cost: 40)
-17. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (cost: 34)
-18. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; J -&gt; K -&gt; L -&gt; M -&gt; P (cost: 36)
-19. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; J -&gt; K -&gt; L -&gt; P (cost: 34)
-20. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; J -&gt; K -&gt; O -&gt; P (cost: 34)
-The least cost path from node A to node P is A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P with a cost of 34.</t>
-  </si>
-  <si>
-    <t>Possible paths from A to P:
-1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P
-2. A -&gt; B -&gt; E -&gt; I -&gt; P
-3. A -&gt; B -&gt; F -&gt; I -&gt; P
-4. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; O -&gt; P
-5. A -&gt; B -&gt; C -&gt; D -&gt; N -&gt; P
-6. A -&gt; B -&gt; C -&gt; G -&gt; J -&gt; N -&gt; P
-7. A -&gt; E -&gt; K -&gt; O -&gt; P
-Comparing the costs of these paths, we can see that the least cost path from node A to node P is:
-A -&gt; B -&gt; E -&gt; I -&gt; P</t>
-  </si>
-  <si>
-    <t>Possible paths from A to O:
-1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; O (cost = 4 + 3 + 1 + 1 + 4 = 13)
-2. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; M -&gt; N -&gt; O (cost = 4 + 3 + 1 + 1 + 2 + 3 + 3 = 17)
-3. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; O (cost = 4 + 3 + 1 + 1 + 2 + 4 = 15)
-4. A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; O (cost = 4 + 3 + 5 + 1 + 4 = 17)
-5. A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; L -&gt; M -&gt; N -&gt; O (cost = 4 + 3 + 5 + 1 + 2 + 3 + 3 = 21)
-6. A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; L -&gt; O (cost = 4 + 3 + 5 + 1 + 2 + 4 = 19)
-7. A -&gt; B -&gt; E -&gt; H -&gt; O (cost = 3 + 2 + 1 + 4 = 10)
-8. A -&gt; B -&gt; E -&gt; K -&gt; M -&gt; N -&gt; O (cost = 3 + 2 + 5 + 3 + 3 = 16)
-9. A -&gt; B -&gt; E -&gt; K -&gt; O (cost = 3 + 2 + 5 + 4 = 14)
-10. A -&gt; B -&gt; E -&gt; H -&gt; L -&gt; M -&gt; N -&gt; O (cost = 3 + 2 + 1 + 2 + 3 + 3 = 14)
-11. A -&gt; B -&gt; E -&gt; H -&gt; L -&gt; O (cost = 3 + 2 + 1 + 2 + 4 = 12)
-The least cost path from node A to node O is A -&gt; B -&gt; E -&gt; H -&gt; O with a cost of 10.</t>
+1. A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P
+Cost: 3 + 4 + 4 + 1 + 4 + 4 = 20
+2. A -&gt; B -&gt; F -&gt; L -&gt; P
+Cost: 3 + 4 + 4 + 4 = 15
+3. A -&gt; B -&gt; F -&gt; L -&gt; O -&gt; P
+Cost: 3 + 4 + 4 + 4 + 5 = 20
+4. A -&gt; B -&gt; F -&gt; L -&gt; M -&gt; N -&gt; P
+Cost: 3 + 4 + 4 + 4 + 1 + 4 = 20
+5. A -&gt; B -&gt; F -&gt; L -&gt; O -&gt; N -&gt; P
+Cost: 3 + 4 + 4 + 4 + 4 + 1 = 20
+The least cost path from node A to node P is A -&gt; B -&gt; F -&gt; L -&gt; P with a cost of 15.</t>
+  </si>
+  <si>
+    <t>The possible paths from node A to node P are:
+1) A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; M -&gt; N -&gt; O -&gt; P
+2) A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; N -&gt; O -&gt; P
+3) A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; O -&gt; P
+4) A -&gt; B -&gt; C -&gt; D -&gt; L -&gt; P
+5) A -&gt; B -&gt; C -&gt; D -&gt; L -&gt; O -&gt; P
+6) A -&gt; B -&gt; C -&gt; D -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
+Calculating the cost for each path:
+1) A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; M -&gt; N -&gt; O -&gt; P: 3 + 2 + 2 + 3 + 3 + 5 + 5 + 1 = 24
+2) A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; N -&gt; O -&gt; P: 3 + 2 + 2 + 3 + 3 + 5 + 5 + 5 + 1 = 27
+3) A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; O -&gt; P: 3 + 2 + 2 + 3 + 3 + 5 + 5 + 1 = 24
+4) A -&gt; B -&gt; C -&gt; D -&gt; L -&gt; P: 3 + 2 + 2 + 3 + 3 + 3 + 1 = 17
+5) A -&gt; B -&gt; C -&gt; D -&gt; L -&gt; O -&gt; P: 3 + 2 + 2 + 3 + 3 + 3 + 5 + 1 = 22
+6) A -&gt; B -&gt; C -&gt; D -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P: 3 + 2 + 2 + 3 + 3 + 3 + 5 + 5 + 1 = 27
+The least cost path from node A to node P is A -&gt; B -&gt; C -&gt; D -&gt; L -&gt; P with a cost of 17.</t>
+  </si>
+  <si>
+    <t>The possible paths from node A to node P are:
+1) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (cost = 26)
+2) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (cost = 25)
+3) A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (cost = 22)
+4) A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; I -&gt; N -&gt; O -&gt; P (cost = 21)
+5) A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; I -&gt; O -&gt; P (cost = 18)
+6) A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; H -&gt; I -&gt; N -&gt; O -&gt; P (cost = 20)
+7) A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; H -&gt; I -&gt; O -&gt; P (cost = 17)
+8) A -&gt; B -&gt; E -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (cost = 23)
+9) A -&gt; B -&gt; E -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (cost = 19)
+10) A -&gt; B -&gt; E -&gt; J -&gt; N -&gt; O -&gt; P (cost = 16)
+11) A -&gt; B -&gt; E -&gt; J -&gt; N -&gt; O -&gt; P (cost = 15)
+12) A -&gt; B -&gt; E -&gt; H -&gt; I -&gt; N -&gt; O -&gt; P (cost = 21)
+13) A -&gt; B -&gt; E -&gt; H -&gt; I -&gt; O -&gt; P (cost = 18)
+14) A -&gt; B -&gt; E -&gt; H -&gt; D -&gt; C -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P (cost = 27)
+15) A -&gt; B -&gt; E -&gt; H -&gt; D -&gt; C -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P (cost = 23)
+16) A -&gt; B -&gt; E -&gt; H -&gt; D -&gt; C -&gt; F -&gt; G -&gt; H -&gt; I -&gt; O -&gt; P (cost = 24)
+17) A -&gt; B -&gt; E -&gt; H -&gt; D -&gt; C -&gt; F -&gt; G -&gt; H -&gt; I -&gt; O -&gt; P (cost = 20)
+18) A -&gt; B -&gt; E -&gt; H -&gt; D -&gt; C -&gt; F -&gt; G -&gt; H -&gt; I -&gt; O -&gt; P (cost = 21)
+19) A -&gt; B -&gt; E -&gt; H -&gt; D -&gt; C -&gt; F -&gt; G -&gt; H -&gt; I -&gt; N -&gt; O -&gt; P (cost = 25)
+20) A -&gt; B -&gt; E -&gt; H -&gt; D -&gt; C -&gt; F -&gt; G -&gt; H -&gt; I -&gt; N -&gt; O -&gt; P (cost = 21)
+21) A -&gt; B -&gt; E -&gt; H -&gt; D -&gt; C -&gt; F -&gt; G -&gt; H -&gt; I -&gt; P (cost = 23)
+22) A -&gt; B -&gt; E -&gt; H -&gt; D -&gt; C -&gt; F -&gt; G -&gt; H -&gt; I -&gt; P (cost = 22)
+The least cost path from node A to node P is: A -&gt; B -&gt; E -&gt; H -&gt; I -&gt; O -&gt; P, with a cost of 17.</t>
   </si>
 </sst>
 </file>
@@ -962,7 +981,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -973,7 +992,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -981,10 +1000,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -992,10 +1011,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1006,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1017,7 +1036,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1028,7 +1047,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1036,10 +1055,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1047,10 +1066,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1058,10 +1077,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
